--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\iDIA_Rules\patient_addition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E95BA-D6F4-BE4C-8A5F-77DAD334BAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6B49B-F9E3-4F04-A411-F7F8FC2E5F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="0" windowWidth="34560" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="26">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>ROUTE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -947,16 +950,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N537"/>
+  <dimension ref="A1:N543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I530" sqref="I530"/>
+      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I542" sqref="I542:J543"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1464,7 +1467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1668,7 +1671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2057,7 +2060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -4001,7 +4004,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -4030,7 +4033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -4127,7 +4130,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -4219,7 +4222,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -4517,7 +4520,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -4655,7 +4658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -4895,7 +4898,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -4987,7 +4990,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -5004,7 +5007,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -5113,7 +5116,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -5457,7 +5460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -5525,7 +5528,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -5542,7 +5545,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>15</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -5600,7 +5603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>15</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -5731,7 +5734,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -5818,7 +5821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -5847,7 +5850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -5915,7 +5918,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -5990,7 +5993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -6007,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -6041,7 +6044,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -6058,7 +6061,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -6087,7 +6090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -6116,7 +6119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>14</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -6242,7 +6245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -6259,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -6310,7 +6313,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -6339,7 +6342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -6402,7 +6405,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -6419,7 +6422,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -6511,7 +6514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -6540,7 +6543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -6557,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -6574,7 +6577,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -6591,7 +6594,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -6654,7 +6657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>15</v>
       </c>
@@ -6683,7 +6686,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>15</v>
       </c>
@@ -6797,7 +6800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -6860,7 +6863,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>16</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -6940,7 +6943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -6986,7 +6989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -7003,7 +7006,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -7020,7 +7023,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -7037,7 +7040,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -7066,7 +7069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -7095,7 +7098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>14</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>13</v>
       </c>
@@ -7163,7 +7166,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -7221,7 +7224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -7238,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>14</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -7272,7 +7275,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -7289,7 +7292,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -7318,7 +7321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -7347,7 +7350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>12</v>
       </c>
@@ -7364,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -7381,7 +7384,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>14</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -7415,7 +7418,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -7444,7 +7447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>14</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -7541,7 +7544,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7570,7 +7573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>15</v>
       </c>
@@ -7599,7 +7602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -7616,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>14</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>13</v>
       </c>
@@ -7667,7 +7670,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -7725,7 +7728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -7742,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -7759,7 +7762,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -7776,7 +7779,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>13</v>
       </c>
@@ -7793,7 +7796,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -7822,7 +7825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -7851,7 +7854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -7868,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -7902,7 +7905,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>13</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -7948,7 +7951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -7977,7 +7980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -7994,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -8028,7 +8031,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>13</v>
       </c>
@@ -8045,7 +8048,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -8074,7 +8077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -8103,7 +8106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -8140,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>14</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>12</v>
       </c>
@@ -8266,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>14</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -8300,7 +8303,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -8334,7 +8337,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -8363,7 +8366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -8392,7 +8395,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>15</v>
       </c>
@@ -8421,7 +8424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -8438,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>14</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>14</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>13</v>
       </c>
@@ -8489,7 +8492,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>15</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>12</v>
       </c>
@@ -8564,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>14</v>
       </c>
@@ -8581,7 +8584,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>14</v>
       </c>
@@ -8598,7 +8601,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>16</v>
       </c>
@@ -8615,7 +8618,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>15</v>
       </c>
@@ -8661,7 +8664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>15</v>
       </c>
@@ -8690,7 +8693,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -8707,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>14</v>
       </c>
@@ -8741,7 +8744,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>15</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>15</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>14</v>
       </c>
@@ -8850,7 +8853,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>14</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -8884,7 +8887,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>15</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>15</v>
       </c>
@@ -8959,7 +8962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>15</v>
       </c>
@@ -8988,7 +8991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -9005,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -9022,7 +9025,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>14</v>
       </c>
@@ -9039,7 +9042,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>16</v>
       </c>
@@ -9056,7 +9059,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -9073,7 +9076,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>15</v>
       </c>
@@ -9102,7 +9105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>15</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>12</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>14</v>
       </c>
@@ -9165,7 +9168,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -9182,7 +9185,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>13</v>
       </c>
@@ -9199,7 +9202,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>15</v>
       </c>
@@ -9228,7 +9231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>15</v>
       </c>
@@ -9257,7 +9260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -9274,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>14</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>14</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -9325,7 +9328,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>13</v>
       </c>
@@ -9342,7 +9345,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>15</v>
       </c>
@@ -9371,7 +9374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>15</v>
       </c>
@@ -9400,7 +9403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>15</v>
       </c>
@@ -9429,7 +9432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -9446,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>14</v>
       </c>
@@ -9463,7 +9466,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>14</v>
       </c>
@@ -9480,7 +9483,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>16</v>
       </c>
@@ -9497,7 +9500,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>13</v>
       </c>
@@ -9514,7 +9517,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>15</v>
       </c>
@@ -9543,7 +9546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>15</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -9589,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>14</v>
       </c>
@@ -9606,7 +9609,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>14</v>
       </c>
@@ -9623,7 +9626,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>13</v>
       </c>
@@ -9640,7 +9643,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>15</v>
       </c>
@@ -9669,7 +9672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>15</v>
       </c>
@@ -9698,7 +9701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>17</v>
       </c>
@@ -9718,7 +9721,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>14</v>
       </c>
@@ -9752,7 +9755,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>14</v>
       </c>
@@ -9769,7 +9772,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>13</v>
       </c>
@@ -9786,7 +9789,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>15</v>
       </c>
@@ -9815,7 +9818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>15</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>17</v>
       </c>
@@ -9864,7 +9867,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>12</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>14</v>
       </c>
@@ -9898,7 +9901,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>14</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>13</v>
       </c>
@@ -9932,7 +9935,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>15</v>
       </c>
@@ -9961,7 +9964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>15</v>
       </c>
@@ -9990,7 +9993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>17</v>
       </c>
@@ -10010,7 +10013,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>12</v>
       </c>
@@ -10027,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>14</v>
       </c>
@@ -10044,7 +10047,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>14</v>
       </c>
@@ -10061,7 +10064,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -10078,7 +10081,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>15</v>
       </c>
@@ -10107,7 +10110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>15</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>17</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>12</v>
       </c>
@@ -10173,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>14</v>
       </c>
@@ -10190,7 +10193,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>14</v>
       </c>
@@ -10207,7 +10210,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>15</v>
       </c>
@@ -10253,7 +10256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>15</v>
       </c>
@@ -10282,7 +10285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>12</v>
       </c>
@@ -10299,7 +10302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>14</v>
       </c>
@@ -10316,7 +10319,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>14</v>
       </c>
@@ -10333,7 +10336,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>13</v>
       </c>
@@ -10350,7 +10353,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>15</v>
       </c>
@@ -10379,7 +10382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>15</v>
       </c>
@@ -10408,7 +10411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>12</v>
       </c>
@@ -10425,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>14</v>
       </c>
@@ -10442,7 +10445,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>14</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -10476,7 +10479,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>15</v>
       </c>
@@ -10505,7 +10508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>15</v>
       </c>
@@ -10534,7 +10537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>12</v>
       </c>
@@ -10551,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>14</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>14</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>13</v>
       </c>
@@ -10602,7 +10605,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>15</v>
       </c>
@@ -10631,7 +10634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>15</v>
       </c>
@@ -10660,7 +10663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>12</v>
       </c>
@@ -10677,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>14</v>
       </c>
@@ -10694,7 +10697,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>14</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>14</v>
       </c>
@@ -10728,7 +10731,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>13</v>
       </c>
@@ -10745,7 +10748,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>15</v>
       </c>
@@ -10774,7 +10777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>15</v>
       </c>
@@ -10803,7 +10806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>15</v>
       </c>
@@ -10832,7 +10835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>17</v>
       </c>
@@ -10852,7 +10855,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>12</v>
       </c>
@@ -10869,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>14</v>
       </c>
@@ -10886,7 +10889,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>14</v>
       </c>
@@ -10903,7 +10906,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -10920,7 +10923,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>15</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>15</v>
       </c>
@@ -10978,7 +10981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>12</v>
       </c>
@@ -10998,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>14</v>
       </c>
@@ -11015,7 +11018,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>14</v>
       </c>
@@ -11032,7 +11035,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>13</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>15</v>
       </c>
@@ -11078,7 +11081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>15</v>
       </c>
@@ -11107,7 +11110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>12</v>
       </c>
@@ -11124,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>14</v>
       </c>
@@ -11141,7 +11144,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>14</v>
       </c>
@@ -11158,7 +11161,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -11175,7 +11178,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>15</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>15</v>
       </c>
@@ -11233,7 +11236,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>12</v>
       </c>
@@ -11250,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>14</v>
       </c>
@@ -11267,7 +11270,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>14</v>
       </c>
@@ -11284,7 +11287,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>13</v>
       </c>
@@ -11301,7 +11304,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>15</v>
       </c>
@@ -11330,7 +11333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>15</v>
       </c>
@@ -11359,7 +11362,7 @@
         <v>4132161</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>12</v>
       </c>
@@ -11376,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>14</v>
       </c>
@@ -11393,7 +11396,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>14</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>13</v>
       </c>
@@ -11427,7 +11430,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>15</v>
       </c>
@@ -11456,7 +11459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>15</v>
       </c>
@@ -11485,7 +11488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>12</v>
       </c>
@@ -11502,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>14</v>
       </c>
@@ -11519,7 +11522,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>14</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -11553,7 +11556,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>15</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>15</v>
       </c>
@@ -11611,7 +11614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>12</v>
       </c>
@@ -11628,7 +11631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>14</v>
       </c>
@@ -11645,7 +11648,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>14</v>
       </c>
@@ -11662,7 +11665,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>14</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>14</v>
       </c>
@@ -11696,7 +11699,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -11713,7 +11716,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>15</v>
       </c>
@@ -11742,7 +11745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>15</v>
       </c>
@@ -11771,7 +11774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>15</v>
       </c>
@@ -11800,7 +11803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>15</v>
       </c>
@@ -11816,6 +11819,9 @@
       <c r="F515" s="1">
         <v>39565</v>
       </c>
+      <c r="G515" t="s">
+        <v>25</v>
+      </c>
       <c r="I515">
         <v>10</v>
       </c>
@@ -11829,7 +11835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>12</v>
       </c>
@@ -11846,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>14</v>
       </c>
@@ -11863,7 +11869,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>14</v>
       </c>
@@ -11880,7 +11886,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>14</v>
       </c>
@@ -11897,7 +11903,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>14</v>
       </c>
@@ -11914,7 +11920,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>13</v>
       </c>
@@ -11931,7 +11937,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>15</v>
       </c>
@@ -11960,7 +11966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>15</v>
       </c>
@@ -11989,7 +11995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>15</v>
       </c>
@@ -12018,7 +12024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>15</v>
       </c>
@@ -12047,7 +12053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>12</v>
       </c>
@@ -12064,7 +12070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>14</v>
       </c>
@@ -12081,7 +12087,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>14</v>
       </c>
@@ -12098,7 +12104,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -12115,7 +12121,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>15</v>
       </c>
@@ -12144,7 +12150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>15</v>
       </c>
@@ -12173,7 +12179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>12</v>
       </c>
@@ -12190,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>14</v>
       </c>
@@ -12207,7 +12213,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>14</v>
       </c>
@@ -12224,7 +12230,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -12241,7 +12247,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>15</v>
       </c>
@@ -12270,7 +12276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>15</v>
       </c>
@@ -12296,6 +12302,132 @@
         <v>19</v>
       </c>
       <c r="N537" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>12</v>
+      </c>
+      <c r="B538">
+        <v>1574</v>
+      </c>
+      <c r="C538">
+        <v>1950</v>
+      </c>
+      <c r="K538">
+        <v>1</v>
+      </c>
+      <c r="L538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>14</v>
+      </c>
+      <c r="B539">
+        <v>1574</v>
+      </c>
+      <c r="D539">
+        <v>739138</v>
+      </c>
+      <c r="E539" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F539" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>14</v>
+      </c>
+      <c r="B540">
+        <v>1574</v>
+      </c>
+      <c r="D540">
+        <v>974166</v>
+      </c>
+      <c r="E540" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F540" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>13</v>
+      </c>
+      <c r="B541">
+        <v>1574</v>
+      </c>
+      <c r="E541" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F541" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H541">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>15</v>
+      </c>
+      <c r="B542">
+        <v>1574</v>
+      </c>
+      <c r="D542">
+        <v>739207</v>
+      </c>
+      <c r="E542" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F542" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I542" t="s">
+        <v>23</v>
+      </c>
+      <c r="J542" t="s">
+        <v>23</v>
+      </c>
+      <c r="M542" t="s">
+        <v>19</v>
+      </c>
+      <c r="N542" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>15</v>
+      </c>
+      <c r="B543">
+        <v>1574</v>
+      </c>
+      <c r="D543">
+        <v>974196</v>
+      </c>
+      <c r="E543" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F543" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I543" t="s">
+        <v>23</v>
+      </c>
+      <c r="J543" t="s">
+        <v>23</v>
+      </c>
+      <c r="M543" t="s">
+        <v>19</v>
+      </c>
+      <c r="N543" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12306,5 +12438,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\iDIA_Rules\patient_addition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6B49B-F9E3-4F04-A411-F7F8FC2E5F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5272873-0A52-7143-B112-F6BFE4067B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="0" windowWidth="34560" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4780" yWindow="-19680" windowWidth="28040" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="26">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -950,16 +950,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N543"/>
+  <dimension ref="A1:N550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I542" sqref="I542:J543"/>
+      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E551" sqref="E551"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>15</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>15</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>14</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>15</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>15</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>16</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>14</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>13</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>14</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>12</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>14</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>14</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>15</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>14</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>13</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>13</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>13</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>13</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>14</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>12</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>14</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>15</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>14</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>14</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>13</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>15</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>12</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>14</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>14</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>16</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>15</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>15</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>14</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>15</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>15</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>14</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>14</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>15</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>15</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>15</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>14</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>16</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>15</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>15</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>12</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>14</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>13</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>15</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>15</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>14</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>14</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>13</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>15</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>15</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>15</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>14</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>14</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>16</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>13</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>15</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>15</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>14</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>14</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>13</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>15</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>15</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>17</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>14</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>14</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>13</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>15</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>15</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>17</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>12</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>14</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>14</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>13</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>15</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>15</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>17</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>12</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>14</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>14</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>15</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>15</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>17</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>12</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>14</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>14</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>15</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>15</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>12</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>14</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>14</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>13</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>15</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>15</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>12</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>14</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>14</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>15</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>15</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>12</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>14</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>14</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>13</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>15</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>15</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>12</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>14</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>14</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>14</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>13</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>15</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>15</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>15</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>17</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>12</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>14</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>14</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>15</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>15</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>12</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>14</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>14</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>13</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>15</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>15</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>12</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>14</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>14</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>15</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>15</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>4184451</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>12</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>14</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>14</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>13</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>15</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>15</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>4132161</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>12</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>14</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>14</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>13</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>15</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>15</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>12</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>14</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>14</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>15</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>15</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>12</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>14</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>14</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>14</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>14</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>15</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>15</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>15</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>15</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>12</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>14</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>14</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>14</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>14</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>13</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>15</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>15</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>15</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>15</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>12</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>14</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>14</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>15</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>15</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>12</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>14</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>14</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>15</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>15</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>12</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>14</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>14</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>13</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>15</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>15</v>
       </c>
@@ -12429,6 +12429,152 @@
       </c>
       <c r="N543" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>12</v>
+      </c>
+      <c r="B544">
+        <v>1575</v>
+      </c>
+      <c r="C544">
+        <v>1950</v>
+      </c>
+      <c r="K544">
+        <v>1</v>
+      </c>
+      <c r="L544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>14</v>
+      </c>
+      <c r="B545">
+        <v>1575</v>
+      </c>
+      <c r="D545">
+        <v>739138</v>
+      </c>
+      <c r="E545" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F545" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>14</v>
+      </c>
+      <c r="B546">
+        <v>1575</v>
+      </c>
+      <c r="D546">
+        <v>974166</v>
+      </c>
+      <c r="E546" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F546" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>13</v>
+      </c>
+      <c r="B547">
+        <v>1575</v>
+      </c>
+      <c r="E547" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F547" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H547">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>15</v>
+      </c>
+      <c r="B548">
+        <v>1575</v>
+      </c>
+      <c r="D548">
+        <v>739207</v>
+      </c>
+      <c r="E548" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F548" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I548" t="s">
+        <v>23</v>
+      </c>
+      <c r="J548" t="s">
+        <v>23</v>
+      </c>
+      <c r="M548" t="s">
+        <v>19</v>
+      </c>
+      <c r="N548" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>15</v>
+      </c>
+      <c r="B549">
+        <v>1575</v>
+      </c>
+      <c r="D549">
+        <v>974196</v>
+      </c>
+      <c r="E549" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F549" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I549" t="s">
+        <v>23</v>
+      </c>
+      <c r="J549" t="s">
+        <v>23</v>
+      </c>
+      <c r="M549" t="s">
+        <v>19</v>
+      </c>
+      <c r="N549" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>17</v>
+      </c>
+      <c r="B550">
+        <v>1575</v>
+      </c>
+      <c r="D550">
+        <v>3019550</v>
+      </c>
+      <c r="E550" s="1">
+        <v>39491</v>
+      </c>
+      <c r="G550">
+        <v>125</v>
+      </c>
+      <c r="H550">
+        <v>9557</v>
       </c>
     </row>
   </sheetData>
